--- a/pic/实验结果.xlsx
+++ b/pic/实验结果.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF37EAC6-A233-4541-8AF3-0899FC2DF4AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74BF0D5-0B63-4141-8063-0ECD4C122F41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23280" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>P</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,12 +97,32 @@
     <t>batch8epoch10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>基于新的tokenizer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EM'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +132,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -144,12 +173,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -805,6 +837,611 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>new_tokenizer</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>下的无监督</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>eval</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>无监督结果!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P'</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>无监督结果!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>bert-base</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MRC1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>共指消解</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MRC3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MRC3'</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>无监督结果!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.8352999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.299599999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.3643</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74.289199999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75.278599999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0286-4123-9A72-87A05BC6CFEF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>无监督结果!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R'</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>无监督结果!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>bert-base</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MRC1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>共指消解</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MRC3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MRC3'</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>无监督结果!$B$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.3909000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.0869</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.775099999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83.624600000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80.607500000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0286-4123-9A72-87A05BC6CFEF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>无监督结果!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EM'</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>无监督结果!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>bert-base</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MRC1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>共指消解</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MRC3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MRC3'</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>无监督结果!$B$8:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.015699999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.259799999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57.874000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55.118099999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0286-4123-9A72-87A05BC6CFEF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>无监督结果!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F'</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>无监督结果!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>bert-base</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MRC1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>共指消解</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MRC3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MRC3'</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>无监督结果!$B$9:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.2202999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.017499999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.5961</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74.661699999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72.829400000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0286-4123-9A72-87A05BC6CFEF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1989074928"/>
+        <c:axId val="1930555872"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1989074928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1930555872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1930555872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1989074928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
               <a:rPr lang="zh-CN" altLang="en-US"/>
               <a:t>有监督</a:t>
             </a:r>
@@ -856,7 +1493,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>无监督结果!$A$9</c:f>
+              <c:f>无监督结果!$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -879,7 +1516,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>无监督结果!$B$8:$I$8</c:f>
+              <c:f>无监督结果!$B$12:$I$12</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -911,7 +1548,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>无监督结果!$B$9:$I$9</c:f>
+              <c:f>无监督结果!$B$13:$I$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -945,7 +1582,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A81B-4DCF-BEB3-3B7903F418D4}"/>
+              <c16:uniqueId val="{00000000-73D5-456E-B267-08E8257DB229}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -954,7 +1591,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>无监督结果!$A$10</c:f>
+              <c:f>无监督结果!$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -977,7 +1614,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>无监督结果!$B$8:$I$8</c:f>
+              <c:f>无监督结果!$B$12:$I$12</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -1009,7 +1646,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>无监督结果!$B$10:$I$10</c:f>
+              <c:f>无监督结果!$B$14:$I$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1043,7 +1680,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A81B-4DCF-BEB3-3B7903F418D4}"/>
+              <c16:uniqueId val="{00000001-73D5-456E-B267-08E8257DB229}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1052,7 +1689,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>无监督结果!$A$11</c:f>
+              <c:f>无监督结果!$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1075,7 +1712,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>无监督结果!$B$8:$I$8</c:f>
+              <c:f>无监督结果!$B$12:$I$12</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -1107,7 +1744,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>无监督结果!$B$11:$I$11</c:f>
+              <c:f>无监督结果!$B$15:$I$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1141,7 +1778,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A81B-4DCF-BEB3-3B7903F418D4}"/>
+              <c16:uniqueId val="{00000002-73D5-456E-B267-08E8257DB229}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1150,7 +1787,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>无监督结果!$A$12</c:f>
+              <c:f>无监督结果!$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1173,7 +1810,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>无监督结果!$B$8:$I$8</c:f>
+              <c:f>无监督结果!$B$12:$I$12</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -1205,7 +1842,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>无监督结果!$B$12:$I$12</c:f>
+              <c:f>无监督结果!$B$16:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1239,7 +1876,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-A81B-4DCF-BEB3-3B7903F418D4}"/>
+              <c16:uniqueId val="{00000003-73D5-456E-B267-08E8257DB229}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1252,11 +1889,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1430639231"/>
-        <c:axId val="1425922111"/>
+        <c:axId val="1942942207"/>
+        <c:axId val="1943067775"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1430639231"/>
+        <c:axId val="1942942207"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1299,7 +1936,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1425922111"/>
+        <c:crossAx val="1943067775"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1307,10 +1944,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1425922111"/>
+        <c:axId val="1943067775"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="40"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1359,7 +1995,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1430639231"/>
+        <c:crossAx val="1942942207"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1526,6 +2162,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2043,6 +2719,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2563,15 +3755,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>739140</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>701040</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2598,23 +3790,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>822960</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>72390</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="图表 3">
+        <xdr:cNvPr id="6" name="图表 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6E4A8BC-B745-4A1D-8350-B4E8B106EC4A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0266A698-F50A-4E0D-9947-A80FCB5AFABB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2627,6 +3819,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBC8CCE9-D479-4D66-9FB7-997D2F061AC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2898,17 +4126,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -3004,161 +4234,253 @@
       <c r="D5" s="1">
         <v>50.943600000000004</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>71.578800000000001</v>
       </c>
       <c r="F5" s="1">
         <v>71.503</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1.8352999999999999</v>
+      </c>
+      <c r="C6" s="1">
+        <v>36.299599999999998</v>
+      </c>
+      <c r="D6" s="1">
+        <v>31.3643</v>
+      </c>
+      <c r="E6" s="2">
+        <v>74.289199999999994</v>
+      </c>
+      <c r="F6" s="1">
+        <v>75.278599999999997</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5.3909000000000002</v>
+      </c>
+      <c r="C7" s="1">
+        <v>33.0869</v>
+      </c>
+      <c r="D7" s="1">
+        <v>31.775099999999998</v>
+      </c>
+      <c r="E7" s="2">
+        <v>83.624600000000001</v>
+      </c>
+      <c r="F7" s="1">
+        <v>80.607500000000002</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>24.015699999999999</v>
+      </c>
+      <c r="D8" s="1">
+        <v>21.259799999999998</v>
+      </c>
+      <c r="E8" s="2">
+        <v>57.874000000000002</v>
+      </c>
+      <c r="F8" s="1">
+        <v>55.118099999999998</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1">
-        <v>59.170999999999999</v>
+        <v>2.2202999999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>83.561700000000002</v>
+        <v>33.017499999999998</v>
       </c>
       <c r="D9" s="1">
-        <v>84.080500000000001</v>
-      </c>
-      <c r="E9" s="1">
-        <v>84.913799999999995</v>
+        <v>29.5961</v>
+      </c>
+      <c r="E9" s="3">
+        <v>74.661699999999996</v>
       </c>
       <c r="F9" s="1">
-        <v>77.844800000000006</v>
-      </c>
-      <c r="G9" s="1">
-        <v>77.490399999999994</v>
-      </c>
-      <c r="H9" s="1">
-        <v>78.362099999999998</v>
-      </c>
-      <c r="I9" s="1">
-        <v>77.268600000000006</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1">
-        <v>59.441699999999997</v>
-      </c>
-      <c r="C10" s="1">
-        <v>91.293099999999995</v>
-      </c>
-      <c r="D10" s="1">
-        <v>89.569000000000003</v>
-      </c>
-      <c r="E10" s="1">
-        <v>85.012299999999996</v>
-      </c>
-      <c r="F10" s="1">
-        <v>80.825100000000006</v>
-      </c>
-      <c r="G10" s="1">
-        <v>79.778300000000002</v>
-      </c>
-      <c r="H10" s="1">
-        <v>82.327600000000004</v>
-      </c>
-      <c r="I10" s="1">
-        <v>82.635499999999993</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="1">
-        <v>41.379300000000001</v>
-      </c>
-      <c r="C11" s="1">
-        <v>72.413799999999995</v>
-      </c>
-      <c r="D11" s="1">
-        <v>68.965500000000006</v>
-      </c>
-      <c r="E11" s="1">
-        <v>68.965500000000006</v>
-      </c>
-      <c r="F11" s="1">
-        <v>62.069000000000003</v>
-      </c>
-      <c r="G11" s="1">
-        <v>68.965500000000006</v>
-      </c>
-      <c r="H11" s="1">
-        <v>65.517200000000003</v>
-      </c>
-      <c r="I11" s="1">
-        <v>68.965500000000006</v>
+        <v>72.829400000000007</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="1">
-        <v>56.4711</v>
-      </c>
-      <c r="C12" s="1">
-        <v>84.704800000000006</v>
-      </c>
-      <c r="D12" s="1">
-        <v>84.934299999999993</v>
-      </c>
-      <c r="E12" s="1">
-        <v>83.821799999999996</v>
-      </c>
-      <c r="F12" s="1">
-        <v>77.270099999999999</v>
-      </c>
-      <c r="G12" s="1">
-        <v>77.880300000000005</v>
-      </c>
-      <c r="H12" s="1">
-        <v>79.511499999999998</v>
-      </c>
-      <c r="I12" s="1">
-        <v>78.2393</v>
+        <v>17</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>59.170999999999999</v>
+      </c>
+      <c r="C13" s="1">
+        <v>83.561700000000002</v>
+      </c>
+      <c r="D13" s="1">
+        <v>84.080500000000001</v>
+      </c>
+      <c r="E13" s="1">
+        <v>84.913799999999995</v>
+      </c>
+      <c r="F13" s="1">
+        <v>77.844800000000006</v>
+      </c>
+      <c r="G13" s="1">
+        <v>77.490399999999994</v>
+      </c>
+      <c r="H13" s="1">
+        <v>78.362099999999998</v>
+      </c>
+      <c r="I13" s="1">
+        <v>77.268600000000006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <v>59.441699999999997</v>
+      </c>
+      <c r="C14" s="1">
+        <v>91.293099999999995</v>
+      </c>
+      <c r="D14" s="1">
+        <v>89.569000000000003</v>
+      </c>
+      <c r="E14" s="1">
+        <v>85.012299999999996</v>
+      </c>
+      <c r="F14" s="1">
+        <v>80.825100000000006</v>
+      </c>
+      <c r="G14" s="1">
+        <v>79.778300000000002</v>
+      </c>
+      <c r="H14" s="1">
+        <v>82.327600000000004</v>
+      </c>
+      <c r="I14" s="1">
+        <v>82.635499999999993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1">
+        <v>41.379300000000001</v>
+      </c>
+      <c r="C15" s="1">
+        <v>72.413799999999995</v>
+      </c>
+      <c r="D15" s="1">
+        <v>68.965500000000006</v>
+      </c>
+      <c r="E15" s="1">
+        <v>68.965500000000006</v>
+      </c>
+      <c r="F15" s="1">
+        <v>62.069000000000003</v>
+      </c>
+      <c r="G15" s="1">
+        <v>68.965500000000006</v>
+      </c>
+      <c r="H15" s="1">
+        <v>65.517200000000003</v>
+      </c>
+      <c r="I15" s="1">
+        <v>68.965500000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1">
+        <v>56.4711</v>
+      </c>
+      <c r="C16" s="1">
+        <v>84.704800000000006</v>
+      </c>
+      <c r="D16" s="1">
+        <v>84.934299999999993</v>
+      </c>
+      <c r="E16" s="1">
+        <v>83.821799999999996</v>
+      </c>
+      <c r="F16" s="1">
+        <v>77.270099999999999</v>
+      </c>
+      <c r="G16" s="1">
+        <v>77.880300000000005</v>
+      </c>
+      <c r="H16" s="1">
+        <v>79.511499999999998</v>
+      </c>
+      <c r="I16" s="1">
+        <v>78.2393</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/pic/实验结果.xlsx
+++ b/pic/实验结果.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74BF0D5-0B63-4141-8063-0ECD4C122F41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942355C4-7B8B-4FD0-A7E7-4C3A09204763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23280" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="无监督结果" sheetId="1" r:id="rId1"/>
@@ -35,26 +35,6 @@
   </si>
   <si>
     <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bert-base</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>共指消解</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MRC1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MRC3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MRC3'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -115,6 +95,26 @@
   </si>
   <si>
     <t>F'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BERT-base-chinese</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BERT-MRC-少量数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共指消解MRC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BERT-MRC-WWM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BERT-MRC-large</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -313,19 +313,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>bert-base</c:v>
+                  <c:v>BERT-base-chinese</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>MRC1</c:v>
+                  <c:v>BERT-MRC-少量数据</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>共指消解</c:v>
+                  <c:v>共指消解MRC</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>MRC3</c:v>
+                  <c:v>BERT-MRC-WWM</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>MRC3'</c:v>
+                  <c:v>BERT-MRC-large</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -393,19 +393,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>bert-base</c:v>
+                  <c:v>BERT-base-chinese</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>MRC1</c:v>
+                  <c:v>BERT-MRC-少量数据</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>共指消解</c:v>
+                  <c:v>共指消解MRC</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>MRC3</c:v>
+                  <c:v>BERT-MRC-WWM</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>MRC3'</c:v>
+                  <c:v>BERT-MRC-large</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -473,19 +473,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>bert-base</c:v>
+                  <c:v>BERT-base-chinese</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>MRC1</c:v>
+                  <c:v>BERT-MRC-少量数据</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>共指消解</c:v>
+                  <c:v>共指消解MRC</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>MRC3</c:v>
+                  <c:v>BERT-MRC-WWM</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>MRC3'</c:v>
+                  <c:v>BERT-MRC-large</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -553,19 +553,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>bert-base</c:v>
+                  <c:v>BERT-base-chinese</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>MRC1</c:v>
+                  <c:v>BERT-MRC-少量数据</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>共指消解</c:v>
+                  <c:v>共指消解MRC</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>MRC3</c:v>
+                  <c:v>BERT-MRC-WWM</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>MRC3'</c:v>
+                  <c:v>BERT-MRC-large</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -918,19 +918,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>bert-base</c:v>
+                  <c:v>BERT-base-chinese</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>MRC1</c:v>
+                  <c:v>BERT-MRC-少量数据</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>共指消解</c:v>
+                  <c:v>共指消解MRC</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>MRC3</c:v>
+                  <c:v>BERT-MRC-WWM</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>MRC3'</c:v>
+                  <c:v>BERT-MRC-large</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -998,19 +998,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>bert-base</c:v>
+                  <c:v>BERT-base-chinese</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>MRC1</c:v>
+                  <c:v>BERT-MRC-少量数据</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>共指消解</c:v>
+                  <c:v>共指消解MRC</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>MRC3</c:v>
+                  <c:v>BERT-MRC-WWM</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>MRC3'</c:v>
+                  <c:v>BERT-MRC-large</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1078,19 +1078,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>bert-base</c:v>
+                  <c:v>BERT-base-chinese</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>MRC1</c:v>
+                  <c:v>BERT-MRC-少量数据</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>共指消解</c:v>
+                  <c:v>共指消解MRC</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>MRC3</c:v>
+                  <c:v>BERT-MRC-WWM</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>MRC3'</c:v>
+                  <c:v>BERT-MRC-large</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1158,19 +1158,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>bert-base</c:v>
+                  <c:v>BERT-base-chinese</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>MRC1</c:v>
+                  <c:v>BERT-MRC-少量数据</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>共指消解</c:v>
+                  <c:v>共指消解MRC</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>MRC3</c:v>
+                  <c:v>BERT-MRC-WWM</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>MRC3'</c:v>
+                  <c:v>BERT-MRC-large</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4128,8 +4128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4143,22 +4143,22 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -4243,7 +4243,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1">
         <v>1.8352999999999999</v>
@@ -4261,12 +4261,12 @@
         <v>75.278599999999997</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1">
         <v>5.3909000000000002</v>
@@ -4286,7 +4286,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -4306,7 +4306,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1">
         <v>2.2202999999999999</v>
@@ -4326,31 +4326,31 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
